--- a/OnBoard/output/trust/bio/Bio_Trust_53.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_53.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>SCOHRHO</t>
         </is>
       </c>
       <c r="F69">
@@ -3631,10 +3631,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="I69">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3643,11 +3643,16 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L69">
         <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>SR472</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3673,7 +3678,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F70">
@@ -3683,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="I70">
-        <v>585</v>
+        <v>193</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3695,7 +3700,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L70">
@@ -3703,7 +3708,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>SR472</t>
+          <t>SS7663</t>
         </is>
       </c>
     </row>
@@ -3740,19 +3745,19 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I71">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L71">
@@ -3760,7 +3765,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>SS7663</t>
+          <t>SS7664</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3787,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3797,10 +3802,10 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="I72">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3809,7 +3814,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L72">
@@ -3817,7 +3822,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>SS7664</t>
+          <t>SS7665</t>
         </is>
       </c>
     </row>
@@ -3854,19 +3859,19 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="I73">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L73">
@@ -3874,7 +3879,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>SS7665</t>
+          <t>SS7666</t>
         </is>
       </c>
     </row>
@@ -3911,82 +3916,25 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="I74">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="N74" t="inlineStr">
-        <is>
-          <t>SS7666</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>225</v>
-      </c>
-      <c r="I75">
-        <v>111</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="inlineStr">
         <is>
           <t>SS7667</t>
         </is>
